--- a/Автоматизация/Автоматизация мобильных приложений/Полезные команды.xlsx
+++ b/Автоматизация/Автоматизация мобильных приложений/Полезные команды.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>adb shell</t>
   </si>
@@ -76,6 +76,50 @@
   </si>
   <si>
     <t>Получить имя пакета и его имя активности (package name и activity name)</t>
+  </si>
+  <si>
+    <t>Переход в директорию с эмулятором и запуск эмулятора из консоли</t>
+  </si>
+  <si>
+    <t>emulator -list-avds</t>
+  </si>
+  <si>
+    <t>Показать список существующих эмуляторов (их названия)</t>
+  </si>
+  <si>
+    <t>adb emu kill</t>
+  </si>
+  <si>
+    <t>"Убить" эмулятор</t>
+  </si>
+  <si>
+    <t>Дополнительно</t>
+  </si>
+  <si>
+    <t>Почему-то какие-то из этих комманд срабатывают в bash, но не срабатывают в cmd</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bash:
+cd /путь_к_SDK/tools
+emulator -avd имя_эмулятора (или emulator @имя эмулятора)
+cmd:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cd диск:
+cd /путь_к_SDK/tools
+emulator -avd имя_эмулятора</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -138,12 +182,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -155,16 +214,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -461,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -476,15 +535,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="90">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -492,13 +554,40 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="135">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Автоматизация/Автоматизация мобильных приложений/Полезные команды.xlsx
+++ b/Автоматизация/Автоматизация мобильных приложений/Полезные команды.xlsx
@@ -1,33 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView windowWidth="28800" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>adb shell</t>
-  </si>
-  <si>
-    <t>Включить консоль Android</t>
-  </si>
-  <si>
-    <t>dumpsys activity | grep "mCurrentFocus"</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Полезные команды
 </t>
     </r>
@@ -36,7 +35,6 @@
         <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
@@ -48,7 +46,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
@@ -58,6 +55,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Примечание:
 </t>
     </r>
@@ -67,7 +72,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
@@ -75,31 +79,35 @@
     </r>
   </si>
   <si>
+    <t>Дополнительно</t>
+  </si>
+  <si>
+    <t>adb shell</t>
+  </si>
+  <si>
+    <t>Включить консоль Android</t>
+  </si>
+  <si>
+    <t>dumpsys activity | grep "mCurrentFocus"</t>
+  </si>
+  <si>
     <t>Получить имя пакета и его имя активности (package name и activity name)</t>
   </si>
   <si>
-    <t>Переход в директорию с эмулятором и запуск эмулятора из консоли</t>
-  </si>
-  <si>
     <t>emulator -list-avds</t>
   </si>
   <si>
     <t>Показать список существующих эмуляторов (их названия)</t>
   </si>
   <si>
-    <t>adb emu kill</t>
-  </si>
-  <si>
-    <t>"Убить" эмулятор</t>
-  </si>
-  <si>
-    <t>Дополнительно</t>
-  </si>
-  <si>
-    <t>Почему-то какие-то из этих комманд срабатывают в bash, но не срабатывают в cmd</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Bash:
 cd /путь_к_SDK/tools
 emulator -avd имя_эмулятора (или emulator @имя эмулятора)
@@ -112,7 +120,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
@@ -121,17 +128,34 @@
 emulator -avd имя_эмулятора</t>
     </r>
   </si>
+  <si>
+    <t>Переход в директорию с эмулятором и запуск эмулятора из консоли</t>
+  </si>
+  <si>
+    <t>Почему-то какие-то из этих комманд срабатывают в bash, но не срабатывают в cmd</t>
+  </si>
+  <si>
+    <t>adb emu kill</t>
+  </si>
+  <si>
+    <t>"Убить" эмулятор</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -140,29 +164,177 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,18 +343,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -192,22 +550,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -217,21 +817,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
+    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
+    <cellStyle name="Процент" xfId="9" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
+    <cellStyle name="Итого" xfId="11" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
+    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -514,109 +1166,118 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="55.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5714285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="90">
+    <row r="1" ht="90" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="3" ht="45" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5"/>
     </row>
-    <row r="3" spans="1:3" ht="45">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="30" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="135">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="135" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Автоматизация/Автоматизация мобильных приложений/Полезные команды.xlsx
+++ b/Автоматизация/Автоматизация мобильных приложений/Полезные команды.xlsx
@@ -79,7 +79,20 @@
     </r>
   </si>
   <si>
-    <t>Дополнительно</t>
+    <r>
+      <t xml:space="preserve">Дополнительно
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Если при выполнении каких-либо команд возникает ошибка "команда не найдена", нужно попробовать перейти в консоли в директорию с непосредственным исполнителем команды. Например, для обнаружения команды "adb" нужно перейти в "platform-tools" и уже оттуда запускать эту команду. Но это только в случае, если путь к platofrm-tools не прописан в Path или команда просто не выполняется из общей директории системы</t>
+    </r>
   </si>
   <si>
     <t>adb shell</t>
@@ -146,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -186,43 +199,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +241,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -251,19 +263,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,6 +303,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -290,16 +318,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,29 +333,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,31 +368,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,145 +518,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,17 +571,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,6 +587,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,11 +621,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,30 +641,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,151 +659,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,7 +1182,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1186,7 +1193,7 @@
     <col min="4" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="90" spans="1:3">
+    <row r="1" ht="210" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
